--- a/public/ean.xlsx
+++ b/public/ean.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>EAN</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Tapochki</t>
+  </si>
+  <si>
+    <t>Туфли</t>
+  </si>
+  <si>
+    <t>Boots</t>
   </si>
 </sst>
 </file>
@@ -367,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,13 +408,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/ean.xlsx
+++ b/public/ean.xlsx
@@ -39,20 +39,20 @@
     <t>Тапочки</t>
   </si>
   <si>
-    <t>Tapochki</t>
-  </si>
-  <si>
     <t>Туфли</t>
   </si>
   <si>
     <t>Boots</t>
+  </si>
+  <si>
+    <t>Shoes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF403E3E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,9 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -376,11 +384,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -396,8 +405,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>5501234567891</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -407,36 +416,36 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>5501234567891</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>5501234567892</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
+      <c r="A5" s="2">
+        <v>5501234567892</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
